--- a/GraphScripts/Graphs.xlsx
+++ b/GraphScripts/Graphs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SteamMining\GraphScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48F5356-9BB9-4561-A43D-574ED18E6BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63135D41-5936-4F4C-BE07-465BBD09D3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tags" sheetId="1" r:id="rId1"/>
     <sheet name="Games" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6117" uniqueCount="5732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="5761">
   <si>
     <t>Singleplayer</t>
   </si>
@@ -17222,13 +17223,108 @@
   </si>
   <si>
     <t>Rugby Challenge 4</t>
+  </si>
+  <si>
+    <t>Items in TDB</t>
+  </si>
+  <si>
+    <t>FP-tree for trans. DB</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a:4</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b:4</t>
+  </si>
+  <si>
+    <t>c:3</t>
+  </si>
+  <si>
+    <t>d:1</t>
+  </si>
+  <si>
+    <t>d:2</t>
+  </si>
+  <si>
+    <t>e:1</t>
+  </si>
+  <si>
+    <t>e:2</t>
+  </si>
+  <si>
+    <t>FP-tree for 
+{e}-proj. DB</t>
+  </si>
+  <si>
+    <t>FP-tree for 
+{d}-proj. DB</t>
+  </si>
+  <si>
+    <t>FP-tree for 
+{c}-proj. DB</t>
+  </si>
+  <si>
+    <t>FP-tree for 
+{b}-proj. DB</t>
+  </si>
+  <si>
+    <t>a:3</t>
+  </si>
+  <si>
+    <t>b:3</t>
+  </si>
+  <si>
+    <t>→ {a, b}:4</t>
+  </si>
+  <si>
+    <t>→ {d, a}:3, {d, b}:3
+{d, a, b}:3</t>
+  </si>
+  <si>
+    <t>→ {c, a}:3, {c, b}:3
+{c, a, b}:3</t>
+  </si>
+  <si>
+    <t>→ {e, a}:3, {e, b}:3, {e, c}:3 
+{e, a, b}:3, {e, a, c}:3, {e, b, c}:3
+{e, a, b, c}:3</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Number of Tags</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17236,16 +17332,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -17253,12 +17390,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23045,6 +23388,560 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of tags on games</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tags!$O$2:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tags!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7E7-4B51-A00B-0A288759D1F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="424509424"/>
+        <c:axId val="424514416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424509424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of tags</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424514416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424514416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="424509424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -23657,6 +24554,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -24759,6 +25696,530 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25381,6 +26842,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20199E8-9F86-48D5-809B-F4AA364E4357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25420,6 +26917,902 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Connector: Curved 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8C537B-EAED-49E2-857D-96D5DCD37425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12816840" y="822960"/>
+          <a:ext cx="2430780" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Connector: Curved 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27609A8-1077-4A50-81CB-C290A5A7ACD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14630400" y="2293620"/>
+          <a:ext cx="617220" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Curved 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001AE37F-C754-481D-A945-994348CDC30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14622780" y="1927860"/>
+          <a:ext cx="1219200" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connector: Curved 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E29230A-A613-4783-9201-8C6ACC261581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12832080" y="1043940"/>
+          <a:ext cx="2400300" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Connector: Curved 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFAA25D-232D-4816-A7D1-92FDAC7DFDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12847320" y="1219200"/>
+          <a:ext cx="1775460" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connector: Curved 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143F7FFD-700A-4AAD-9CF1-971FAF79DEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12847320" y="1386840"/>
+          <a:ext cx="1165860" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Connector: Curved 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6E15DF-53B9-46CC-A126-C90DF1AF013A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12870180" y="1584960"/>
+          <a:ext cx="1127760" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>287295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592183</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Arrow: Down 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B86D28-05E0-4626-BC9F-691F1A9A1594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3902656">
+          <a:off x="12787949" y="2533510"/>
+          <a:ext cx="297180" cy="914488"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133394</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>430574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Arrow: Down 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06ACA956-E144-414B-B072-AEE44899CB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763794" y="2956560"/>
+          <a:ext cx="297180" cy="331514"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68147</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Arrow: Down 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E367151-A533-4CDC-BA72-4F775FB586EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17579987">
+          <a:off x="17885421" y="2007836"/>
+          <a:ext cx="297180" cy="1794128"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>447767</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Arrow: Down 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBEF2B0-FFFA-4A68-87EB-2AEC96852A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19440625">
+          <a:off x="16609787" y="2987746"/>
+          <a:ext cx="297180" cy="311346"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4335A92C-552E-4736-8F64-EA5F05FC3671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14653260" y="2057400"/>
+          <a:ext cx="251460" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FEB962-0809-46CE-AE5A-E81AB975B0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14904720" y="2057400"/>
+          <a:ext cx="259080" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB7CB04-4712-4A19-8FEE-845FA05CE8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15293340" y="1706880"/>
+          <a:ext cx="251460" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85857752-D502-484D-9A09-126CC08CAB99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15544800" y="1706880"/>
+          <a:ext cx="259080" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -25688,203 +28081,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B809"/>
+  <dimension ref="A1:Q809"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" style="33" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>3711</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2924</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N2" s="6"/>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2604</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N3" s="6"/>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2479</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N4" s="6"/>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2169</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N5" s="6"/>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1929</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N6" s="6"/>
+      <c r="O6">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1664</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N7" s="6"/>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1654</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N8" s="6"/>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1462</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N9" s="6"/>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1410</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N10" s="6"/>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1287</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1275</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N12" s="6"/>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1240</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N13" s="6"/>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1203</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N14" s="6"/>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1203</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N15" s="6"/>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>982</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N16" s="6"/>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>943</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N17" s="6"/>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>921</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>886</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N19" s="6"/>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>822</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N20" s="6"/>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>810</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N21" s="6"/>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>807</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N22" s="6"/>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>786</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -25892,7 +28444,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -25900,7 +28452,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -25908,7 +28460,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -25916,7 +28468,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -25924,7 +28476,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -25932,7 +28484,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -25940,7 +28492,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -25948,7 +28500,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -32173,6 +34725,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P22">
+    <sortCondition descending="1" ref="O2:O22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32182,7 +34737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B5534-9BCE-4DDD-9FD8-76BB4533DB76}">
   <dimension ref="A1:B5311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -74685,4 +77240,384 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28371E4F-A446-4E75-B279-1247411768B2}">
+  <dimension ref="C2:AF34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="R8" s="25" t="s">
+        <v>5732</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="26" t="s">
+        <v>5733</v>
+      </c>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>5734</v>
+      </c>
+      <c r="S9" s="5">
+        <v>4</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>5735</v>
+      </c>
+      <c r="S10" s="5">
+        <v>4</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>5736</v>
+      </c>
+      <c r="S11" s="5">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="4" t="s">
+        <v>5737</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>5738</v>
+      </c>
+      <c r="S12" s="5">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="R13" s="8" t="s">
+        <v>5740</v>
+      </c>
+      <c r="S13" s="9">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="4" t="s">
+        <v>5741</v>
+      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="4" t="s">
+        <v>5742</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="4" t="s">
+        <v>5743</v>
+      </c>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+      <c r="W16" s="11"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+      <c r="V17" s="4" t="s">
+        <v>5744</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>5745</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+      <c r="V18" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+      <c r="V19" s="4" t="s">
+        <v>5746</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="U20" s="12"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="14"/>
+    </row>
+    <row r="23" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R23" s="27" t="s">
+        <v>5747</v>
+      </c>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29"/>
+      <c r="V23" s="27" t="s">
+        <v>5748</v>
+      </c>
+      <c r="W23" s="28"/>
+      <c r="X23" s="29"/>
+      <c r="Z23" s="27" t="s">
+        <v>5749</v>
+      </c>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="29"/>
+      <c r="AD23" s="27" t="s">
+        <v>5750</v>
+      </c>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="29"/>
+    </row>
+    <row r="24" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="32"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="32"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="32"/>
+    </row>
+    <row r="25" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R25" s="1"/>
+      <c r="T25" s="3"/>
+      <c r="V25" s="1"/>
+      <c r="X25" s="3"/>
+      <c r="Z25" s="1"/>
+      <c r="AB25" s="3"/>
+      <c r="AD25" s="1"/>
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R26" s="1"/>
+      <c r="S26" s="4" t="s">
+        <v>5751</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="4" t="s">
+        <v>5751</v>
+      </c>
+      <c r="X26" s="3"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="4" t="s">
+        <v>5751</v>
+      </c>
+      <c r="AB26" s="3"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="4" t="s">
+        <v>5737</v>
+      </c>
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R27" s="1"/>
+      <c r="S27" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AD27" s="1"/>
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R28" s="1"/>
+      <c r="S28" s="4" t="s">
+        <v>5752</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="4" t="s">
+        <v>5752</v>
+      </c>
+      <c r="X28" s="3"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="4" t="s">
+        <v>5752</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AD28" s="16" t="s">
+        <v>5753</v>
+      </c>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="18"/>
+    </row>
+    <row r="29" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R29" s="1"/>
+      <c r="S29" s="7" t="s">
+        <v>5739</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="V29" s="1"/>
+      <c r="X29" s="3"/>
+      <c r="Z29" s="1"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="14"/>
+    </row>
+    <row r="30" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R30" s="1"/>
+      <c r="S30" s="4" t="s">
+        <v>5742</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="V30" s="19" t="s">
+        <v>5754</v>
+      </c>
+      <c r="W30" s="20"/>
+      <c r="X30" s="21"/>
+      <c r="Z30" s="19" t="s">
+        <v>5755</v>
+      </c>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="21"/>
+    </row>
+    <row r="31" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R31" s="1"/>
+      <c r="T31" s="3"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="24"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="24"/>
+    </row>
+    <row r="32" spans="18:32" x14ac:dyDescent="0.3">
+      <c r="R32" s="19" t="s">
+        <v>5756</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R33" s="19"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="18:20" x14ac:dyDescent="0.3">
+      <c r="R34" s="22"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="V30:X31"/>
+    <mergeCell ref="Z30:AB31"/>
+    <mergeCell ref="R32:T34"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="R23:T24"/>
+    <mergeCell ref="V23:X24"/>
+    <mergeCell ref="Z23:AB24"/>
+    <mergeCell ref="AD23:AF24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>